--- a/data/outputs/能源化工元源数据文件_elsevier/3（2）APPLIED BIOCHEMISTRY AND BIOTECHNOLOGY.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/3（2）APPLIED BIOCHEMISTRY AND BIOTECHNOLOGY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS110"/>
+  <dimension ref="A1:BU110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84922294203</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1148,6 +1164,12 @@
           <t>2-s2.0-84922326590</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1367,6 +1389,12 @@
           <t>2-s2.0-84922311391</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1586,6 +1614,12 @@
           <t>2-s2.0-84922464522</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1805,6 +1839,12 @@
           <t>2-s2.0-84922427015</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2030,6 +2070,12 @@
           <t>2-s2.0-84922432578</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2245,6 +2291,12 @@
           <t>2-s2.0-84922470490</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2464,6 +2516,12 @@
           <t>2-s2.0-84922456035</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2689,6 +2747,12 @@
           <t>2-s2.0-84925266656</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2914,6 +2978,12 @@
           <t>2-s2.0-84938151399</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3135,6 +3205,12 @@
           <t>2-s2.0-84938125046</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3348,6 +3424,12 @@
           <t>2-s2.0-84922567425</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3573,6 +3655,12 @@
           <t>2-s2.0-84938149319</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3794,6 +3882,12 @@
           <t>2-s2.0-84930943952</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4011,6 +4105,12 @@
           <t>2-s2.0-84938086498</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4232,6 +4332,12 @@
           <t>2-s2.0-84938082654</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4459,6 +4565,12 @@
           <t>2-s2.0-84938055266</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4684,6 +4796,12 @@
           <t>2-s2.0-84938096927</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4905,6 +5023,12 @@
           <t>2-s2.0-84938073433</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5122,6 +5246,12 @@
           <t>2-s2.0-84938097607</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5339,6 +5469,12 @@
           <t>2-s2.0-84938088468</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5556,6 +5692,12 @@
           <t>2-s2.0-84938088441</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5778,6 +5920,12 @@
         <is>
           <t>2-s2.0-84938097422</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -5990,6 +6138,12 @@
           <t>2-s2.0-84938150386</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6211,6 +6365,12 @@
           <t>2-s2.0-84927738303</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6427,6 +6587,12 @@
         <is>
           <t>2-s2.0-84938072452</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -6637,6 +6803,12 @@
           <t>2-s2.0-84938125022</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6858,6 +7030,12 @@
           <t>2-s2.0-84938057581</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7074,6 +7252,12 @@
         <is>
           <t>2-s2.0-84929089124</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -7284,6 +7468,12 @@
           <t>2-s2.0-84938066908</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7503,6 +7693,12 @@
           <t>2-s2.0-84938073920</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7730,6 +7926,12 @@
           <t>2-s2.0-84938099308</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7949,6 +8151,12 @@
           <t>2-s2.0-84937818421</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8169,6 +8377,12 @@
         <is>
           <t>2-s2.0-84938076839</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -8379,6 +8593,12 @@
           <t>2-s2.0-84938074949</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8588,6 +8808,12 @@
           <t>2-s2.0-84938074442</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8807,6 +9033,12 @@
           <t>2-s2.0-84938054807</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9024,6 +9256,12 @@
           <t>2-s2.0-84938079543</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9241,6 +9479,12 @@
           <t>2-s2.0-84938069445</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9458,6 +9702,12 @@
           <t>2-s2.0-84938080901</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9675,6 +9925,12 @@
           <t>2-s2.0-84938081929</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9892,6 +10148,12 @@
           <t>2-s2.0-84938070005</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10111,6 +10373,12 @@
           <t>2-s2.0-84938151369</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10329,6 +10597,12 @@
         <is>
           <t>2-s2.0-84938079682</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -10539,6 +10813,12 @@
           <t>2-s2.0-84938071104</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10764,6 +11044,12 @@
           <t>2-s2.0-84938151370</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10981,6 +11267,12 @@
           <t>2-s2.0-84938152431</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11206,6 +11498,12 @@
           <t>2-s2.0-84938149273</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11427,6 +11725,12 @@
           <t>2-s2.0-84938095056</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11651,6 +11955,12 @@
         <is>
           <t>2-s2.0-84938092530</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -11853,6 +12163,12 @@
           <t>2-s2.0-84938071325</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12067,6 +12383,12 @@
         <is>
           <t>2-s2.0-84921033548</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -12279,6 +12601,12 @@
           <t>2-s2.0-84921062468</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12504,6 +12832,12 @@
           <t>2-s2.0-84921048697</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12727,6 +13061,12 @@
           <t>2-s2.0-84921023883</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12948,6 +13288,12 @@
           <t>2-s2.0-84921024555</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13177,6 +13523,12 @@
           <t>2-s2.0-84921033547</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13394,6 +13746,12 @@
           <t>2-s2.0-84921033032</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13613,6 +13971,12 @@
           <t>2-s2.0-84921058950</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13839,6 +14203,12 @@
         <is>
           <t>2-s2.0-84921059045</t>
         </is>
+      </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -14049,6 +14419,12 @@
           <t>2-s2.0-84921020217</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14268,6 +14644,12 @@
           <t>2-s2.0-84921031069</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14485,6 +14867,12 @@
           <t>2-s2.0-84920155248</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14710,6 +15098,12 @@
           <t>2-s2.0-84921032456</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14929,6 +15323,12 @@
           <t>2-s2.0-84921032518</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15146,6 +15546,12 @@
           <t>2-s2.0-84921029652</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15370,6 +15776,12 @@
         <is>
           <t>2-s2.0-84920959275</t>
         </is>
+      </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -15580,6 +15992,12 @@
           <t>2-s2.0-84921033645</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15797,6 +16215,12 @@
           <t>2-s2.0-84921020013</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16022,6 +16446,12 @@
           <t>2-s2.0-84921059048</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16239,6 +16669,12 @@
           <t>2-s2.0-84921028874</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16456,6 +16892,12 @@
           <t>2-s2.0-84921027169</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16673,6 +17115,12 @@
           <t>2-s2.0-84921048323</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16896,6 +17344,12 @@
           <t>2-s2.0-84921054128</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17123,6 +17577,12 @@
           <t>2-s2.0-84921033116</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17349,6 +17809,12 @@
         <is>
           <t>2-s2.0-84921056885</t>
         </is>
+      </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -17559,6 +18025,12 @@
           <t>2-s2.0-84921051387</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17776,6 +18248,12 @@
           <t>2-s2.0-84921029719</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17993,6 +18471,12 @@
           <t>2-s2.0-84921060238</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18210,6 +18694,12 @@
           <t>2-s2.0-84921046651</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18423,6 +18913,12 @@
           <t>2-s2.0-84921061964</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18648,6 +19144,12 @@
           <t>2-s2.0-84921022878</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18865,6 +19367,12 @@
           <t>2-s2.0-84921019262</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19082,6 +19590,12 @@
           <t>2-s2.0-84921056684</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19299,6 +19813,12 @@
           <t>2-s2.0-84921031248</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19526,6 +20046,12 @@
           <t>2-s2.0-84921022299</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19744,6 +20270,12 @@
         <is>
           <t>2-s2.0-84921051974</t>
         </is>
+      </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -19954,6 +20486,12 @@
           <t>2-s2.0-84921038363</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20181,6 +20719,12 @@
           <t>2-s2.0-84921019070</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20400,6 +20944,12 @@
           <t>2-s2.0-84921047503</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20615,6 +21165,12 @@
           <t>2-s2.0-84921048373</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20840,6 +21396,12 @@
           <t>2-s2.0-84921047348</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -21064,6 +21626,12 @@
         <is>
           <t>2-s2.0-84921022540</t>
         </is>
+      </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -21274,6 +21842,12 @@
           <t>2-s2.0-84938076226</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21491,6 +22065,12 @@
           <t>2-s2.0-84938053027</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21708,6 +22288,12 @@
           <t>2-s2.0-84938152444</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21933,6 +22519,12 @@
           <t>2-s2.0-84938064735</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22160,6 +22752,12 @@
           <t>2-s2.0-84938153472</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22384,6 +22982,12 @@
         <is>
           <t>2-s2.0-84937524146</t>
         </is>
+      </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -22596,6 +23200,12 @@
           <t>2-s2.0-84938086935</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22805,6 +23415,12 @@
           <t>2-s2.0-84928808966</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -23026,6 +23642,12 @@
           <t>2-s2.0-84921033035</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23252,6 +23874,12 @@
         <is>
           <t>2-s2.0-84921033031</t>
         </is>
+      </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="105">
@@ -23462,6 +24090,12 @@
           <t>2-s2.0-84921022915</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23679,6 +24313,12 @@
           <t>2-s2.0-84921033109</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23898,6 +24538,12 @@
           <t>2-s2.0-84921038364</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -24115,6 +24761,12 @@
           <t>2-s2.0-84921047456</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24340,6 +24992,12 @@
           <t>2-s2.0-84921065087</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24557,6 +25215,12 @@
           <t>2-s2.0-84921031095</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
